--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Angptl3-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Angptl3-Itga5.xlsx
@@ -540,10 +540,10 @@
         <v>5.264918</v>
       </c>
       <c r="I2">
-        <v>0.5110994274238188</v>
+        <v>0.6142318033764959</v>
       </c>
       <c r="J2">
-        <v>0.5110994274238188</v>
+        <v>0.6142318033764957</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.72417333333333</v>
+        <v>10.34761366666667</v>
       </c>
       <c r="N2">
-        <v>86.17251999999999</v>
+        <v>31.042841</v>
       </c>
       <c r="O2">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="P2">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="Q2">
-        <v>50.41013907259554</v>
+        <v>18.15977915022644</v>
       </c>
       <c r="R2">
-        <v>453.6912516533599</v>
+        <v>163.438012352038</v>
       </c>
       <c r="S2">
-        <v>0.2163616306221322</v>
+        <v>0.1412704572241715</v>
       </c>
       <c r="T2">
-        <v>0.2163616306221323</v>
+        <v>0.1412704572241716</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>5.264918</v>
       </c>
       <c r="I3">
-        <v>0.5110994274238188</v>
+        <v>0.6142318033764959</v>
       </c>
       <c r="J3">
-        <v>0.5110994274238188</v>
+        <v>0.6142318033764957</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,10 +620,10 @@
         <v>91.709587</v>
       </c>
       <c r="O3">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692173</v>
       </c>
       <c r="P3">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692174</v>
       </c>
       <c r="Q3">
         <v>53.64927281876288</v>
@@ -632,10 +632,10 @@
         <v>482.843455368866</v>
       </c>
       <c r="S3">
-        <v>0.2302640770747137</v>
+        <v>0.4173540458919317</v>
       </c>
       <c r="T3">
-        <v>0.2302640770747137</v>
+        <v>0.4173540458919317</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>5.264918</v>
       </c>
       <c r="I4">
-        <v>0.5110994274238188</v>
+        <v>0.6142318033764959</v>
       </c>
       <c r="J4">
-        <v>0.5110994274238188</v>
+        <v>0.6142318033764957</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.559531999999999</v>
+        <v>4.073058666666666</v>
       </c>
       <c r="N4">
-        <v>25.678596</v>
+        <v>12.219176</v>
       </c>
       <c r="O4">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859702</v>
       </c>
       <c r="P4">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859703</v>
       </c>
       <c r="Q4">
-        <v>15.02174469945866</v>
+        <v>7.148106629729777</v>
       </c>
       <c r="R4">
-        <v>135.195702295128</v>
+        <v>64.33295966756799</v>
       </c>
       <c r="S4">
-        <v>0.06447371972697286</v>
+        <v>0.05560730026039252</v>
       </c>
       <c r="T4">
-        <v>0.06447371972697286</v>
+        <v>0.05560730026039252</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.678748</v>
+        <v>1.102210333333334</v>
       </c>
       <c r="H5">
-        <v>5.036244</v>
+        <v>3.306631</v>
       </c>
       <c r="I5">
-        <v>0.4889005725761812</v>
+        <v>0.3857681966235041</v>
       </c>
       <c r="J5">
-        <v>0.4889005725761812</v>
+        <v>0.3857681966235041</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>28.72417333333333</v>
+        <v>10.34761366666667</v>
       </c>
       <c r="N5">
-        <v>86.17251999999999</v>
+        <v>31.042841</v>
       </c>
       <c r="O5">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="P5">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="Q5">
-        <v>48.22064853498666</v>
+        <v>11.40524670874122</v>
       </c>
       <c r="R5">
-        <v>433.98583681488</v>
+        <v>102.647220378671</v>
       </c>
       <c r="S5">
-        <v>0.2069642801751005</v>
+        <v>0.08872489053801401</v>
       </c>
       <c r="T5">
-        <v>0.2069642801751005</v>
+        <v>0.08872489053801402</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.678748</v>
+        <v>1.102210333333334</v>
       </c>
       <c r="H6">
-        <v>5.036244</v>
+        <v>3.306631</v>
       </c>
       <c r="I6">
-        <v>0.4889005725761812</v>
+        <v>0.3857681966235041</v>
       </c>
       <c r="J6">
-        <v>0.4889005725761812</v>
+        <v>0.3857681966235041</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>91.709587</v>
       </c>
       <c r="O6">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692173</v>
       </c>
       <c r="P6">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692174</v>
       </c>
       <c r="Q6">
-        <v>51.31909525235866</v>
+        <v>33.69441815237745</v>
       </c>
       <c r="R6">
-        <v>461.871857271228</v>
+        <v>303.249763371397</v>
       </c>
       <c r="S6">
-        <v>0.2202628942336926</v>
+        <v>0.2621191490772856</v>
       </c>
       <c r="T6">
-        <v>0.2202628942336926</v>
+        <v>0.2621191490772856</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.678748</v>
+        <v>1.102210333333334</v>
       </c>
       <c r="H7">
-        <v>5.036244</v>
+        <v>3.306631</v>
       </c>
       <c r="I7">
-        <v>0.4889005725761812</v>
+        <v>0.3857681966235041</v>
       </c>
       <c r="J7">
-        <v>0.4889005725761812</v>
+        <v>0.3857681966235041</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.559531999999999</v>
+        <v>4.073058666666666</v>
       </c>
       <c r="N7">
-        <v>25.678596</v>
+        <v>12.219176</v>
       </c>
       <c r="O7">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859702</v>
       </c>
       <c r="P7">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859703</v>
       </c>
       <c r="Q7">
-        <v>14.369297225936</v>
+        <v>4.48936735067289</v>
       </c>
       <c r="R7">
-        <v>129.323675033424</v>
+        <v>40.404306156056</v>
       </c>
       <c r="S7">
-        <v>0.06167339816738811</v>
+        <v>0.0349241570082045</v>
       </c>
       <c r="T7">
-        <v>0.06167339816738812</v>
+        <v>0.0349241570082045</v>
       </c>
     </row>
   </sheetData>
